--- a/data/case1/15/Qlm2_13.xlsx
+++ b/data/case1/15/Qlm2_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.119519643307747</v>
+        <v>-0.12831060389814297</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11943321265550111</v>
+        <v>0.12824627590856608</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.1377332837455354</v>
+        <v>-0.10613994171847363</v>
       </c>
       <c r="B2" s="0">
-        <v>0.13742852543230377</v>
+        <v>0.10594806856791994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.087724281800751314</v>
+        <v>-0.062441373547418522</v>
       </c>
       <c r="B3" s="0">
-        <v>0.087555480959119691</v>
+        <v>0.062318912095170376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.079555480982167026</v>
+        <v>-0.054318912112252704</v>
       </c>
       <c r="B4" s="0">
-        <v>0.078983809114040682</v>
+        <v>0.053783936798721399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.075983809126296542</v>
+        <v>-0.050783936807293983</v>
       </c>
       <c r="B5" s="0">
-        <v>0.074027378509193831</v>
+        <v>0.048955049268253781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.042492070916395619</v>
+        <v>-0.041835639482542319</v>
       </c>
       <c r="B6" s="0">
-        <v>0.04203274205925922</v>
+        <v>0.041265424208017265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.03203274209116902</v>
+        <v>-0.031265424231284644</v>
       </c>
       <c r="B7" s="0">
-        <v>0.031923891728619758</v>
+        <v>0.03112230113408021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.021923891761427061</v>
+        <v>-0.021122301158092771</v>
       </c>
       <c r="B8" s="0">
-        <v>0.021739261331808812</v>
+        <v>0.020855089219321332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029648252087505877</v>
+        <v>-0.018855089229491639</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029412435379591262</v>
+        <v>0.018631840818514878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027412435395628876</v>
+        <v>-0.027412126027615002</v>
       </c>
       <c r="B10" s="0">
-        <v>0.02739599588919539</v>
+        <v>0.027395471896751289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.02439599590780972</v>
+        <v>-0.024395471909585353</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024369095629968029</v>
+        <v>0.024368547108363892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020869095650135616</v>
+        <v>-0.020868547122380843</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020673116936205105</v>
+        <v>0.020672939597704776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017173116957744483</v>
+        <v>-0.01717293961296118</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017083641406872019</v>
+        <v>0.01708359156231154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090836414395623066</v>
+        <v>-0.0090835915861307015</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090542044001145072</v>
+        <v>0.0090541547483837803</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080542044163358639</v>
+        <v>-0.0080541547596091334</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080351773557412187</v>
+        <v>0.0080351248432730671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060351773746027959</v>
+        <v>-0.0060351248565284621</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060037334776379403</v>
+        <v>0.0060037631217979559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040037334968490157</v>
+        <v>-0.0040037631353513348</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999759068317</v>
+        <v>0.0039999999827058375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016106055413430909</v>
+        <v>-0.016106334201307249</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091837589591762</v>
+        <v>0.016091856038233487</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091837599528255</v>
+        <v>-0.012091856045843841</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012017110148148991</v>
+        <v>0.012017180518879123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080171101587609428</v>
+        <v>-0.0080171805270818908</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057124750627651</v>
+        <v>0.0080057081102946626</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057124857835191</v>
+        <v>-0.0040057081185711496</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999892001981</v>
+        <v>0.003999999991654235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045704243643955422</v>
+        <v>-0.045703728164594892</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045493050338317076</v>
+        <v>0.045492643206083372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040493050353819449</v>
+        <v>-0.040492643217596047</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097917188198551</v>
+        <v>0.040097848822135518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097917240830654</v>
+        <v>-0.020097848862280721</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999946702651</v>
+        <v>0.019999999959311232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.029535307605263128</v>
+        <v>-0.0051194097940392425</v>
       </c>
       <c r="B25" s="0">
-        <v>0.029477650039300585</v>
+        <v>0.0050811829806747255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.026977650053174429</v>
+        <v>-0.0025811829899531347</v>
       </c>
       <c r="B26" s="0">
-        <v>0.026907344853933424</v>
+        <v>0.0025355996361202671</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.029241950094025082</v>
+        <v>-3.5599645408446179e-05</v>
       </c>
       <c r="B27" s="0">
-        <v>0.028846362374310264</v>
+        <v>-0.00021217883197666154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.026846362388613265</v>
+        <v>0.0022121788235205386</v>
       </c>
       <c r="B28" s="0">
-        <v>0.026594780468897739</v>
+        <v>-0.0023647659779229002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.019594780496015041</v>
+        <v>-0.0077015333758128079</v>
       </c>
       <c r="B29" s="0">
-        <v>0.01953371801258541</v>
+        <v>0.0076197877555657101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.040466281833546169</v>
+        <v>0.052380212129871317</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.040656887363429206</v>
+        <v>-0.052707437673345403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023587417714367</v>
+        <v>-0.014023480461405669</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001491466279603</v>
+        <v>0.014001576280005423</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040014914994799256</v>
+        <v>-0.0040015763014888961</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999810422793</v>
+        <v>0.0039999999894462235</v>
       </c>
     </row>
   </sheetData>
